--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl11-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl11-Ackr4.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6658270000000001</v>
+        <v>0.264496</v>
       </c>
       <c r="H2">
-        <v>1.997481</v>
+        <v>0.793488</v>
       </c>
       <c r="I2">
-        <v>0.002619014661824084</v>
+        <v>0.001006353962629067</v>
       </c>
       <c r="J2">
-        <v>0.002619014661824084</v>
+        <v>0.001006353962629067</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1143813333333333</v>
+        <v>0.1148133333333333</v>
       </c>
       <c r="N2">
-        <v>0.343144</v>
+        <v>0.34444</v>
       </c>
       <c r="O2">
-        <v>0.03414257747883775</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="P2">
-        <v>0.03414257747883775</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="Q2">
-        <v>0.07615818002933335</v>
+        <v>0.03036766741333333</v>
       </c>
       <c r="R2">
-        <v>0.6854236202640001</v>
+        <v>0.27330900672</v>
       </c>
       <c r="S2">
-        <v>8.941991100954081E-05</v>
+        <v>3.365038969376745E-05</v>
       </c>
       <c r="T2">
-        <v>8.941991100954081E-05</v>
+        <v>3.365038969376745E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6658270000000001</v>
+        <v>0.264496</v>
       </c>
       <c r="H3">
-        <v>1.997481</v>
+        <v>0.793488</v>
       </c>
       <c r="I3">
-        <v>0.002619014661824084</v>
+        <v>0.001006353962629067</v>
       </c>
       <c r="J3">
-        <v>0.002619014661824084</v>
+        <v>0.001006353962629067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.527947000000001</v>
       </c>
       <c r="O3">
-        <v>0.9480237703755849</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="P3">
-        <v>0.9480237703755849</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="Q3">
-        <v>2.114654789056334</v>
+        <v>0.8400346232373335</v>
       </c>
       <c r="R3">
-        <v>19.031893101507</v>
+        <v>7.560311609136001</v>
       </c>
       <c r="S3">
-        <v>0.002482888154371405</v>
+        <v>0.0009308417417592687</v>
       </c>
       <c r="T3">
-        <v>0.002482888154371405</v>
+        <v>0.0009308417417592686</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6658270000000001</v>
+        <v>0.264496</v>
       </c>
       <c r="H4">
-        <v>1.997481</v>
+        <v>0.793488</v>
       </c>
       <c r="I4">
-        <v>0.002619014661824084</v>
+        <v>0.001006353962629067</v>
       </c>
       <c r="J4">
-        <v>0.002619014661824084</v>
+        <v>0.001006353962629067</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05974466666666667</v>
+        <v>0.1428303333333333</v>
       </c>
       <c r="N4">
-        <v>0.179234</v>
+        <v>0.428491</v>
       </c>
       <c r="O4">
-        <v>0.01783365214557738</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="P4">
-        <v>0.01783365214557738</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="Q4">
-        <v>0.03977961217266667</v>
+        <v>0.03777805184533334</v>
       </c>
       <c r="R4">
-        <v>0.358016509554</v>
+        <v>0.340002466608</v>
       </c>
       <c r="S4">
-        <v>4.670659644313769E-05</v>
+        <v>4.186183117603097E-05</v>
       </c>
       <c r="T4">
-        <v>4.670659644313769E-05</v>
+        <v>4.186183117603097E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,43 +723,43 @@
         <v>245.845932</v>
       </c>
       <c r="H5">
-        <v>737.5377960000001</v>
+        <v>737.537796</v>
       </c>
       <c r="I5">
-        <v>0.967029123868222</v>
+        <v>0.9353942133886188</v>
       </c>
       <c r="J5">
-        <v>0.9670291238682222</v>
+        <v>0.9353942133886189</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1143813333333333</v>
+        <v>0.1148133333333333</v>
       </c>
       <c r="N5">
-        <v>0.343144</v>
+        <v>0.34444</v>
       </c>
       <c r="O5">
-        <v>0.03414257747883775</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="P5">
-        <v>0.03414257747883775</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="Q5">
-        <v>28.120185496736</v>
+        <v>28.22639093936</v>
       </c>
       <c r="R5">
-        <v>253.081669470624</v>
+        <v>254.03751845424</v>
       </c>
       <c r="S5">
-        <v>0.03301686678596336</v>
+        <v>0.03127764282419187</v>
       </c>
       <c r="T5">
-        <v>0.03301686678596336</v>
+        <v>0.03127764282419187</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>245.845932</v>
       </c>
       <c r="H6">
-        <v>737.5377960000001</v>
+        <v>737.537796</v>
       </c>
       <c r="I6">
-        <v>0.967029123868222</v>
+        <v>0.9353942133886188</v>
       </c>
       <c r="J6">
-        <v>0.9670291238682222</v>
+        <v>0.9353942133886189</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>9.527947000000001</v>
       </c>
       <c r="O6">
-        <v>0.9480237703755849</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="P6">
-        <v>0.9480237703755849</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="Q6">
-        <v>780.8023367538682</v>
+        <v>780.802336753868</v>
       </c>
       <c r="R6">
-        <v>7027.221030784814</v>
+        <v>7027.221030784813</v>
       </c>
       <c r="S6">
-        <v>0.9167665960725504</v>
+        <v>0.8652064891238834</v>
       </c>
       <c r="T6">
-        <v>0.9167665960725505</v>
+        <v>0.8652064891238835</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,43 +847,43 @@
         <v>245.845932</v>
       </c>
       <c r="H7">
-        <v>737.5377960000001</v>
+        <v>737.537796</v>
       </c>
       <c r="I7">
-        <v>0.967029123868222</v>
+        <v>0.9353942133886188</v>
       </c>
       <c r="J7">
-        <v>0.9670291238682222</v>
+        <v>0.9353942133886189</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.05974466666666667</v>
+        <v>0.1428303333333333</v>
       </c>
       <c r="N7">
-        <v>0.179234</v>
+        <v>0.428491</v>
       </c>
       <c r="O7">
-        <v>0.01783365214557738</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="P7">
-        <v>0.01783365214557738</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="Q7">
-        <v>14.687983258696</v>
+        <v>35.114256416204</v>
       </c>
       <c r="R7">
-        <v>132.191849328264</v>
+        <v>316.028307745836</v>
       </c>
       <c r="S7">
-        <v>0.01724566100970833</v>
+        <v>0.03891008144054348</v>
       </c>
       <c r="T7">
-        <v>0.01724566100970834</v>
+        <v>0.03891008144054349</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.716294666666666</v>
+        <v>16.71558533333333</v>
       </c>
       <c r="H8">
-        <v>23.148884</v>
+        <v>50.146756</v>
       </c>
       <c r="I8">
-        <v>0.03035186146995387</v>
+        <v>0.06359943264875202</v>
       </c>
       <c r="J8">
-        <v>0.03035186146995388</v>
+        <v>0.06359943264875202</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1143813333333333</v>
+        <v>0.1148133333333333</v>
       </c>
       <c r="N8">
-        <v>0.343144</v>
+        <v>0.34444</v>
       </c>
       <c r="O8">
-        <v>0.03414257747883775</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="P8">
-        <v>0.03414257747883775</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="Q8">
-        <v>0.8826000723662222</v>
+        <v>1.919172070737778</v>
       </c>
       <c r="R8">
-        <v>7.943400651296</v>
+        <v>17.27254863664</v>
       </c>
       <c r="S8">
-        <v>0.00103629078186485</v>
+        <v>0.002126633145401406</v>
       </c>
       <c r="T8">
-        <v>0.00103629078186485</v>
+        <v>0.002126633145401406</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.716294666666666</v>
+        <v>16.71558533333333</v>
       </c>
       <c r="H9">
-        <v>23.148884</v>
+        <v>50.146756</v>
       </c>
       <c r="I9">
-        <v>0.03035186146995387</v>
+        <v>0.06359943264875202</v>
       </c>
       <c r="J9">
-        <v>0.03035186146995388</v>
+        <v>0.06359943264875202</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>9.527947000000001</v>
       </c>
       <c r="O9">
-        <v>0.9480237703755849</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="P9">
-        <v>0.9480237703755849</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="Q9">
-        <v>24.50681554012756</v>
+        <v>53.08840370999245</v>
       </c>
       <c r="R9">
-        <v>220.561339861148</v>
+        <v>477.795633389932</v>
       </c>
       <c r="S9">
-        <v>0.02877428614866311</v>
+        <v>0.05882722069976742</v>
       </c>
       <c r="T9">
-        <v>0.02877428614866312</v>
+        <v>0.05882722069976742</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.716294666666666</v>
+        <v>16.71558533333333</v>
       </c>
       <c r="H10">
-        <v>23.148884</v>
+        <v>50.146756</v>
       </c>
       <c r="I10">
-        <v>0.03035186146995387</v>
+        <v>0.06359943264875202</v>
       </c>
       <c r="J10">
-        <v>0.03035186146995388</v>
+        <v>0.06359943264875202</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.05974466666666667</v>
+        <v>0.1428303333333333</v>
       </c>
       <c r="N10">
-        <v>0.179234</v>
+        <v>0.428491</v>
       </c>
       <c r="O10">
-        <v>0.01783365214557738</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="P10">
-        <v>0.01783365214557738</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="Q10">
-        <v>0.4610074527617778</v>
+        <v>2.387492625021778</v>
       </c>
       <c r="R10">
-        <v>4.149067074856</v>
+        <v>21.487433625196</v>
       </c>
       <c r="S10">
-        <v>0.0005412845394259104</v>
+        <v>0.00264557880358319</v>
       </c>
       <c r="T10">
-        <v>0.0005412845394259104</v>
+        <v>0.00264557880358319</v>
       </c>
     </row>
   </sheetData>
